--- a/material aulas ao vivo/Banco de dados/Estrutura de dados e SQL.xlsx
+++ b/material aulas ao vivo/Banco de dados/Estrutura de dados e SQL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/02a6e46bac8144b3/Documentos/5.Programação/Projeto-beta/material aulas ao vivo/Banco de dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1E79853-5B27-4FB8-9025-D64FE53B7D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{A1E79853-5B27-4FB8-9025-D64FE53B7D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B002297-470D-434E-B641-31DD6FADB18D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{527B2582-A57F-4C29-8C6C-49E233FA4DC9}"/>
+    <workbookView xWindow="2610" yWindow="1245" windowWidth="15375" windowHeight="7785" xr2:uid="{527B2582-A57F-4C29-8C6C-49E233FA4DC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>Aula estrutura de dados</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>FK</t>
+  </si>
+  <si>
+    <t>nome_cliente varchar(50)</t>
   </si>
 </sst>
 </file>
@@ -291,14 +294,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -319,6 +316,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -637,13 +640,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED2AC85-8677-4A87-8B50-F83A2B293548}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -684,11 +687,11 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
       <c r="G11" t="s">
         <v>20</v>
       </c>
@@ -765,50 +768,50 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>50</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>13</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <f>A19-B19</f>
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>50</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>13</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="G24" s="5" t="s">
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="G24" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="5"/>
+      <c r="H24" s="15"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B25" t="s">
@@ -817,10 +820,10 @@
       <c r="C25" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="8" t="s">
         <v>36</v>
       </c>
       <c r="H25" t="s">
@@ -828,23 +831,23 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
+      <c r="A26" s="6">
         <v>1</v>
       </c>
       <c r="B26" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="4">
         <v>2560</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="10">
         <v>1</v>
       </c>
       <c r="E26" t="str">
         <f>VLOOKUP(D26,G26:H30,2,FALSE)</f>
         <v>brastemp</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="8">
         <v>1</v>
       </c>
       <c r="H26" t="s">
@@ -852,23 +855,23 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
+      <c r="A27" s="6">
         <v>2</v>
       </c>
       <c r="B27" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="4">
         <v>1850</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="10">
         <v>1</v>
       </c>
       <c r="E27" t="str">
         <f>VLOOKUP(D27,G26:H29,2,FALSE)</f>
         <v>brastemp</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="8">
         <v>2</v>
       </c>
       <c r="H27" t="s">
@@ -876,23 +879,23 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
+      <c r="A28" s="6">
         <v>3</v>
       </c>
       <c r="B28" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="4">
         <v>750</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="10">
         <v>1</v>
       </c>
       <c r="E28" t="str">
         <f>VLOOKUP(D28,G26:H30,2,FALSE)</f>
         <v>brastemp</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G28" s="8">
         <v>3</v>
       </c>
       <c r="H28" t="s">
@@ -900,23 +903,23 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
+      <c r="A29" s="6">
         <v>4</v>
       </c>
       <c r="B29" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="4">
         <v>1600</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="10">
         <v>2</v>
       </c>
       <c r="E29" t="str">
         <f>VLOOKUP(D29,G26:H30,2,FALSE)</f>
         <v>sony</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G29" s="8">
         <v>4</v>
       </c>
       <c r="H29" t="s">
@@ -924,36 +927,36 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
+      <c r="A30" s="6">
         <v>5</v>
       </c>
       <c r="B30" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="4">
         <v>2000</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="10">
         <v>3</v>
       </c>
       <c r="E30" t="str">
         <f>VLOOKUP(D30,G26:H30,2,FALSE)</f>
         <v>lg</v>
       </c>
-      <c r="G30" s="10"/>
+      <c r="G30" s="8"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="15" t="s">
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="13" t="s">
         <v>42</v>
       </c>
     </row>
